--- a/final_data_pipeline/output/311221longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311221longform_elec_options.xlsx
@@ -651,7 +651,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -672,10 +672,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R2">
-        <v>1.550576923076923</v>
+        <v>1.458486584262888</v>
       </c>
       <c r="S2">
-        <v>1.658958333333333</v>
+        <v>1.552746181345467</v>
       </c>
       <c r="T2">
         <v>411.5033987253229</v>
@@ -710,7 +710,7 @@
         <v>56</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -725,10 +725,10 @@
         <v>4789131.815742043</v>
       </c>
       <c r="R3">
-        <v>1.822120038722169</v>
+        <v>1.687990434197743</v>
       </c>
       <c r="S3">
-        <v>1.990621650589496</v>
+        <v>1.829652737870454</v>
       </c>
       <c r="T3">
         <v>598.6414769677554</v>
@@ -934,7 +934,7 @@
         <v>70</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -955,10 +955,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R7">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="S7">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="T7">
         <v>186.7729481756191</v>
@@ -993,7 +993,7 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -1008,10 +1008,10 @@
         <v>2173688.65287273</v>
       </c>
       <c r="R8">
-        <v>1.822120038722169</v>
+        <v>1.875479296468405</v>
       </c>
       <c r="S8">
-        <v>1.990621650589496</v>
+        <v>2.055366535688525</v>
       </c>
       <c r="T8">
         <v>271.7110816090913</v>
@@ -1046,7 +1046,7 @@
         <v>57</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1099,7 +1099,7 @@
         <v>70</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1120,10 +1120,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R10">
-        <v>1.550576923076923</v>
+        <v>1.676945000770297</v>
       </c>
       <c r="S10">
-        <v>1.658958333333333</v>
+        <v>1.806427491177953</v>
       </c>
       <c r="T10">
         <v>294.9020998031086</v>
@@ -1158,7 +1158,7 @@
         <v>56</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1173,10 +1173,10 @@
         <v>3432110.240331027</v>
       </c>
       <c r="R11">
-        <v>1.822120038722169</v>
+        <v>2.013021864849877</v>
       </c>
       <c r="S11">
-        <v>1.990621650589496</v>
+        <v>2.224152843076377</v>
       </c>
       <c r="T11">
         <v>429.0137800413784</v>
@@ -1211,7 +1211,7 @@
         <v>57</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1264,7 +1264,7 @@
         <v>70</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1285,10 +1285,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R13">
-        <v>1.550576923076923</v>
+        <v>1.676945000770297</v>
       </c>
       <c r="S13">
-        <v>1.658958333333333</v>
+        <v>1.806427491177953</v>
       </c>
       <c r="T13">
         <v>18.07567421066398</v>
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1338,10 +1338,10 @@
         <v>210367.1238717079</v>
       </c>
       <c r="R14">
-        <v>1.822120038722169</v>
+        <v>2.013021864849877</v>
       </c>
       <c r="S14">
-        <v>1.990621650589496</v>
+        <v>2.224152843076377</v>
       </c>
       <c r="T14">
         <v>26.29589048396349</v>
@@ -1376,7 +1376,7 @@
         <v>58</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1470,7 +1470,7 @@
         <v>58</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1517,7 +1517,7 @@
         <v>58</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1564,7 +1564,7 @@
         <v>56</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1579,10 +1579,10 @@
         <v>2924283.2145759</v>
       </c>
       <c r="R19">
-        <v>1.822120038722169</v>
+        <v>1.875479296468405</v>
       </c>
       <c r="S19">
-        <v>1.990621650589496</v>
+        <v>2.055366535688525</v>
       </c>
       <c r="T19">
         <v>365.5354018219875</v>
@@ -1623,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1644,10 +1644,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R20">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="S20">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="T20">
         <v>251.2673544874948</v>
@@ -1806,7 +1806,7 @@
         <v>70</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1827,10 +1827,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R23">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S23">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T23">
         <v>172.4734506726224</v>
@@ -1865,7 +1865,7 @@
         <v>56</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1880,10 +1880,10 @@
         <v>2007269.180632996</v>
       </c>
       <c r="R24">
-        <v>1.822120038722169</v>
+        <v>1.904673198104963</v>
       </c>
       <c r="S24">
-        <v>1.990621650589496</v>
+        <v>2.090962591474336</v>
       </c>
       <c r="T24">
         <v>250.9086475791245</v>
@@ -1924,7 +1924,7 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1945,10 +1945,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R25">
-        <v>1.550576923076923</v>
+        <v>1.596883662077925</v>
       </c>
       <c r="S25">
-        <v>1.658958333333333</v>
+        <v>1.712764324418727</v>
       </c>
       <c r="T25">
         <v>95.42664458936508</v>
@@ -1983,7 +1983,7 @@
         <v>57</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -2030,7 +2030,7 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2045,10 +2045,10 @@
         <v>1110588.104710867</v>
       </c>
       <c r="R27">
-        <v>1.822120038722169</v>
+        <v>1.891133884283326</v>
       </c>
       <c r="S27">
-        <v>1.990621650589496</v>
+        <v>2.074438874323838</v>
       </c>
       <c r="T27">
         <v>138.8235130888583</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2275,10 +2275,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R31">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S31">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T31">
         <v>43.35359588862731</v>
@@ -2313,7 +2313,7 @@
         <v>56</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2328,10 +2328,10 @@
         <v>504554.9709679025</v>
       </c>
       <c r="R32">
-        <v>1.822120038722169</v>
+        <v>1.904673198104963</v>
       </c>
       <c r="S32">
-        <v>1.990621650589496</v>
+        <v>2.090962591474336</v>
       </c>
       <c r="T32">
         <v>63.06937137098781</v>
@@ -2372,7 +2372,7 @@
         <v>70</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L33">
         <v>8000</v>
@@ -2393,10 +2393,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R33">
-        <v>1.550576923076923</v>
+        <v>1.674333288469303</v>
       </c>
       <c r="S33">
-        <v>1.658958333333333</v>
+        <v>1.803359265239363</v>
       </c>
       <c r="T33">
         <v>104.2777504732013</v>
@@ -2431,7 +2431,7 @@
         <v>57</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2478,7 +2478,7 @@
         <v>56</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -2493,10 +2493,10 @@
         <v>1213598.463614552</v>
       </c>
       <c r="R35">
-        <v>1.822120038722169</v>
+        <v>2.008993294560045</v>
       </c>
       <c r="S35">
-        <v>1.990621650589496</v>
+        <v>2.21916989815957</v>
       </c>
       <c r="T35">
         <v>151.699807951819</v>
@@ -2655,7 +2655,7 @@
         <v>70</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L38">
         <v>8000</v>
@@ -2676,10 +2676,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R38">
-        <v>1.550576923076923</v>
+        <v>1.442683896620278</v>
       </c>
       <c r="S38">
-        <v>1.658958333333333</v>
+        <v>1.534625267665953</v>
       </c>
       <c r="T38">
         <v>15.65640364521483</v>
@@ -2714,7 +2714,7 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2729,10 +2729,10 @@
         <v>182211.3281437253</v>
       </c>
       <c r="R39">
-        <v>1.822120038722169</v>
+        <v>1.665380456154149</v>
       </c>
       <c r="S39">
-        <v>1.990621650589496</v>
+        <v>1.802766393442623</v>
       </c>
       <c r="T39">
         <v>22.77641601796566</v>
@@ -2885,7 +2885,7 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2938,7 +2938,7 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -2959,10 +2959,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R43">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S43">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T43">
         <v>354.0100970503334</v>
@@ -2997,7 +2997,7 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L44">
         <v>8000</v>
@@ -3012,10 +3012,10 @@
         <v>4120017.049991255</v>
       </c>
       <c r="R44">
-        <v>1.822120038722169</v>
+        <v>1.904673198104963</v>
       </c>
       <c r="S44">
-        <v>1.990621650589496</v>
+        <v>2.090962591474336</v>
       </c>
       <c r="T44">
         <v>515.0021312489068</v>
@@ -3333,7 +3333,7 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L50">
         <v>8000</v>
@@ -3386,7 +3386,7 @@
         <v>70</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3407,10 +3407,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R51">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="S51">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="T51">
         <v>335.0547034222135</v>
@@ -3445,7 +3445,7 @@
         <v>56</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -3460,10 +3460,10 @@
         <v>3899411.633400423</v>
       </c>
       <c r="R52">
-        <v>1.822120038722169</v>
+        <v>1.875479296468405</v>
       </c>
       <c r="S52">
-        <v>1.990621650589496</v>
+        <v>2.055366535688525</v>
       </c>
       <c r="T52">
         <v>487.4264541750529</v>
@@ -3504,7 +3504,7 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L53">
         <v>8000</v>
@@ -3525,10 +3525,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R53">
-        <v>1.550576923076923</v>
+        <v>1.596883662077925</v>
       </c>
       <c r="S53">
-        <v>1.658958333333333</v>
+        <v>1.712764324418727</v>
       </c>
       <c r="T53">
         <v>248.4454528967829</v>
@@ -3563,7 +3563,7 @@
         <v>56</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L54">
         <v>8000</v>
@@ -3578,10 +3578,10 @@
         <v>2891441.544906016</v>
       </c>
       <c r="R54">
-        <v>1.822120038722169</v>
+        <v>1.891133884283326</v>
       </c>
       <c r="S54">
-        <v>1.990621650589496</v>
+        <v>2.074438874323838</v>
       </c>
       <c r="T54">
         <v>361.430193113252</v>
@@ -3622,7 +3622,7 @@
         <v>70</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L55">
         <v>8000</v>
@@ -3643,10 +3643,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R55">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S55">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T55">
         <v>400.1048834784056</v>
@@ -3681,7 +3681,7 @@
         <v>57</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L56">
         <v>8000</v>
@@ -3728,7 +3728,7 @@
         <v>56</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L57">
         <v>8000</v>
@@ -3743,10 +3743,10 @@
         <v>4656474.364575593</v>
       </c>
       <c r="R57">
-        <v>1.822120038722169</v>
+        <v>1.904673198104963</v>
       </c>
       <c r="S57">
-        <v>1.990621650589496</v>
+        <v>2.090962591474336</v>
       </c>
       <c r="T57">
         <v>582.0592955719491</v>
@@ -3781,7 +3781,7 @@
         <v>57</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L58">
         <v>8000</v>
@@ -3828,7 +3828,7 @@
         <v>56</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L59">
         <v>8000</v>
@@ -3843,10 +3843,10 @@
         <v>1388657.898228848</v>
       </c>
       <c r="R59">
-        <v>1.822120038722169</v>
+        <v>1.745457823876906</v>
       </c>
       <c r="S59">
-        <v>1.990621650589496</v>
+        <v>1.898309736523319</v>
       </c>
       <c r="T59">
         <v>173.582237278606</v>
@@ -3887,7 +3887,7 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L60">
         <v>8000</v>
@@ -3908,10 +3908,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R60">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="S60">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="T60">
         <v>119.319631777434</v>
@@ -3952,7 +3952,7 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L61">
         <v>8000</v>
@@ -3973,10 +3973,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R61">
-        <v>1.550576923076923</v>
+        <v>1.674333288469303</v>
       </c>
       <c r="S61">
-        <v>1.658958333333333</v>
+        <v>1.803359265239363</v>
       </c>
       <c r="T61">
         <v>391.6554438656381</v>
@@ -4011,7 +4011,7 @@
         <v>56</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L62">
         <v>8000</v>
@@ -4026,10 +4026,10 @@
         <v>4558138.65167494</v>
       </c>
       <c r="R62">
-        <v>1.822120038722169</v>
+        <v>2.008993294560045</v>
       </c>
       <c r="S62">
-        <v>1.990621650589496</v>
+        <v>2.21916989815957</v>
       </c>
       <c r="T62">
         <v>569.7673314593675</v>
@@ -4064,7 +4064,7 @@
         <v>57</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L63">
         <v>8000</v>
@@ -4117,7 +4117,7 @@
         <v>70</v>
       </c>
       <c r="K64">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L64">
         <v>8000</v>
@@ -4138,10 +4138,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R64">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S64">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T64">
         <v>70.64491901562322</v>
@@ -4176,7 +4176,7 @@
         <v>56</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L65">
         <v>8000</v>
@@ -4191,10 +4191,10 @@
         <v>822175.0545104825</v>
       </c>
       <c r="R65">
-        <v>1.822120038722169</v>
+        <v>1.904673198104963</v>
       </c>
       <c r="S65">
-        <v>1.990621650589496</v>
+        <v>2.090962591474336</v>
       </c>
       <c r="T65">
         <v>102.7718818138103</v>
@@ -4229,7 +4229,7 @@
         <v>56</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L66">
         <v>8000</v>
@@ -4244,10 +4244,10 @@
         <v>939963.7010904143</v>
       </c>
       <c r="R66">
-        <v>1.822120038722169</v>
+        <v>2.045532758429849</v>
       </c>
       <c r="S66">
-        <v>1.990621650589496</v>
+        <v>2.264453199968389</v>
       </c>
       <c r="T66">
         <v>117.4954626363018</v>
@@ -4288,7 +4288,7 @@
         <v>70</v>
       </c>
       <c r="K67">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L67">
         <v>8000</v>
@@ -4309,10 +4309,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R67">
-        <v>1.550576923076923</v>
+        <v>1.697937058846468</v>
       </c>
       <c r="S67">
-        <v>1.658958333333333</v>
+        <v>1.831120384959332</v>
       </c>
       <c r="T67">
         <v>80.76584077425468</v>
@@ -4347,7 +4347,7 @@
         <v>56</v>
       </c>
       <c r="K68">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L68">
         <v>8000</v>
@@ -4362,10 +4362,10 @@
         <v>3563832.90992134</v>
       </c>
       <c r="R68">
-        <v>1.822120038722169</v>
+        <v>1.904673198104963</v>
       </c>
       <c r="S68">
-        <v>1.990621650589496</v>
+        <v>2.090962591474336</v>
       </c>
       <c r="T68">
         <v>445.4791137401675</v>
@@ -4406,7 +4406,7 @@
         <v>70</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L69">
         <v>8000</v>
@@ -4427,10 +4427,10 @@
         <v>3.317916666666667</v>
       </c>
       <c r="R69">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S69">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T69">
         <v>306.2202944803599</v>
